--- a/data/pca/factorExposure/factorExposure_2012-02-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01679494884640696</v>
+        <v>0.01625192880031168</v>
       </c>
       <c r="C2">
-        <v>0.0308809224248009</v>
+        <v>0.02600873713480207</v>
       </c>
       <c r="D2">
-        <v>-0.005136718415463132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007473583950119577</v>
+      </c>
+      <c r="E2">
+        <v>0.01638336456234152</v>
+      </c>
+      <c r="F2">
+        <v>0.01613695927073207</v>
+      </c>
+      <c r="G2">
+        <v>0.019038143501289</v>
+      </c>
+      <c r="H2">
+        <v>-0.05218940254472256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07425223729574401</v>
+        <v>0.08847970177854975</v>
       </c>
       <c r="C4">
-        <v>0.05417009919626593</v>
+        <v>0.04164528465901134</v>
       </c>
       <c r="D4">
-        <v>-0.08191619328299909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06553922854618184</v>
+      </c>
+      <c r="E4">
+        <v>0.009013141866512505</v>
+      </c>
+      <c r="F4">
+        <v>0.03744526509333083</v>
+      </c>
+      <c r="G4">
+        <v>0.002079500457355611</v>
+      </c>
+      <c r="H4">
+        <v>0.0372009912461147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1103375662659019</v>
+        <v>0.1196749206441256</v>
       </c>
       <c r="C6">
-        <v>0.05195809160628544</v>
+        <v>0.03514747097081208</v>
       </c>
       <c r="D6">
-        <v>-0.001670163567927759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01306418315750325</v>
+      </c>
+      <c r="E6">
+        <v>-0.01958363916258002</v>
+      </c>
+      <c r="F6">
+        <v>0.05612232513381488</v>
+      </c>
+      <c r="G6">
+        <v>0.03595828767945344</v>
+      </c>
+      <c r="H6">
+        <v>-0.1161117808322664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05235848622662528</v>
+        <v>0.06445325498412427</v>
       </c>
       <c r="C7">
-        <v>0.02409776165411649</v>
+        <v>0.01531791040599689</v>
       </c>
       <c r="D7">
-        <v>-0.04403913050602337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04578141510712702</v>
+      </c>
+      <c r="E7">
+        <v>0.0381711741677964</v>
+      </c>
+      <c r="F7">
+        <v>0.0388548098303292</v>
+      </c>
+      <c r="G7">
+        <v>-0.03645860673573355</v>
+      </c>
+      <c r="H7">
+        <v>0.007798584456622413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03978526516085142</v>
+        <v>0.04103192522946228</v>
       </c>
       <c r="C8">
-        <v>0.01457098511126318</v>
+        <v>0.01054032726925562</v>
       </c>
       <c r="D8">
-        <v>-0.05963115043457801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02366143894403976</v>
+      </c>
+      <c r="E8">
+        <v>0.02234609078951911</v>
+      </c>
+      <c r="F8">
+        <v>0.05705342794163452</v>
+      </c>
+      <c r="G8">
+        <v>0.05784662819149245</v>
+      </c>
+      <c r="H8">
+        <v>-0.008753996701782618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0693045288617892</v>
+        <v>0.07982937781275888</v>
       </c>
       <c r="C9">
-        <v>0.0411625683765143</v>
+        <v>0.0287929093741882</v>
       </c>
       <c r="D9">
-        <v>-0.07057742484857452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06197535775572418</v>
+      </c>
+      <c r="E9">
+        <v>0.02915114820779235</v>
+      </c>
+      <c r="F9">
+        <v>0.03565667275907443</v>
+      </c>
+      <c r="G9">
+        <v>0.009478186248400846</v>
+      </c>
+      <c r="H9">
+        <v>0.04812887069879139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03004862909994234</v>
+        <v>0.03390077097465531</v>
       </c>
       <c r="C10">
-        <v>0.02361439476229537</v>
+        <v>0.04127720044138226</v>
       </c>
       <c r="D10">
-        <v>0.1710781115223622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1711869256149374</v>
+      </c>
+      <c r="E10">
+        <v>0.04005735226214158</v>
+      </c>
+      <c r="F10">
+        <v>0.05218148346175899</v>
+      </c>
+      <c r="G10">
+        <v>-0.02300899636721538</v>
+      </c>
+      <c r="H10">
+        <v>-0.03481240088351471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07312581787266371</v>
+        <v>0.07742832897272169</v>
       </c>
       <c r="C11">
-        <v>0.04437250769842969</v>
+        <v>0.02638224075778702</v>
       </c>
       <c r="D11">
-        <v>-0.05877588962510939</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06237247908727546</v>
+      </c>
+      <c r="E11">
+        <v>-0.004583380440558931</v>
+      </c>
+      <c r="F11">
+        <v>0.0300210186081746</v>
+      </c>
+      <c r="G11">
+        <v>0.0008117939905062449</v>
+      </c>
+      <c r="H11">
+        <v>0.08453724836294604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06057930372836916</v>
+        <v>0.06908232720233125</v>
       </c>
       <c r="C12">
-        <v>0.05193212806032241</v>
+        <v>0.03728222043003594</v>
       </c>
       <c r="D12">
-        <v>-0.04808530696785929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0481091813413532</v>
+      </c>
+      <c r="E12">
+        <v>0.01316291296476724</v>
+      </c>
+      <c r="F12">
+        <v>0.0223277013755193</v>
+      </c>
+      <c r="G12">
+        <v>0.00286637147505258</v>
+      </c>
+      <c r="H12">
+        <v>0.03921413118157106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06200675554550019</v>
+        <v>0.06563487957598278</v>
       </c>
       <c r="C13">
-        <v>0.03350467232669876</v>
+        <v>0.02069578846997727</v>
       </c>
       <c r="D13">
-        <v>-0.06194824211115688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04265669800649429</v>
+      </c>
+      <c r="E13">
+        <v>0.01710181067682684</v>
+      </c>
+      <c r="F13">
+        <v>0.01022037001664338</v>
+      </c>
+      <c r="G13">
+        <v>-0.00629679561934609</v>
+      </c>
+      <c r="H13">
+        <v>0.0524565790484921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03378188662616897</v>
+        <v>0.04033478235791976</v>
       </c>
       <c r="C14">
-        <v>0.03144524931380081</v>
+        <v>0.02828188408494172</v>
       </c>
       <c r="D14">
-        <v>-0.003011835425321887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.009977775314465143</v>
+      </c>
+      <c r="E14">
+        <v>0.0309964420911981</v>
+      </c>
+      <c r="F14">
+        <v>0.01437606142085371</v>
+      </c>
+      <c r="G14">
+        <v>0.005658432057530546</v>
+      </c>
+      <c r="H14">
+        <v>0.05980430320030287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04101309287775552</v>
+        <v>0.04050996894374803</v>
       </c>
       <c r="C15">
-        <v>0.009067594074799781</v>
+        <v>0.003069962396581921</v>
       </c>
       <c r="D15">
-        <v>-0.01761858934929792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004656660550549175</v>
+      </c>
+      <c r="E15">
+        <v>0.03500523797697049</v>
+      </c>
+      <c r="F15">
+        <v>0.0002282066876034739</v>
+      </c>
+      <c r="G15">
+        <v>0.02378661880398078</v>
+      </c>
+      <c r="H15">
+        <v>0.03519155648230604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06185417095054419</v>
+        <v>0.07157772214841786</v>
       </c>
       <c r="C16">
-        <v>0.04115657288703892</v>
+        <v>0.02802299705391106</v>
       </c>
       <c r="D16">
-        <v>-0.04781897037489753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06015497120202649</v>
+      </c>
+      <c r="E16">
+        <v>0.00376068657428824</v>
+      </c>
+      <c r="F16">
+        <v>0.02813547627513105</v>
+      </c>
+      <c r="G16">
+        <v>-0.002821341921004076</v>
+      </c>
+      <c r="H16">
+        <v>0.05234781996162315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06210004116448255</v>
+        <v>0.06332758144734953</v>
       </c>
       <c r="C20">
-        <v>0.02440712032445677</v>
+        <v>0.01028937206742632</v>
       </c>
       <c r="D20">
-        <v>-0.05231042749904688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03850291908978228</v>
+      </c>
+      <c r="E20">
+        <v>0.01875099155432917</v>
+      </c>
+      <c r="F20">
+        <v>0.02802423910153061</v>
+      </c>
+      <c r="G20">
+        <v>0.01525772363774085</v>
+      </c>
+      <c r="H20">
+        <v>0.04414023795967242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02572393707793129</v>
+        <v>0.02603878100033626</v>
       </c>
       <c r="C21">
-        <v>-0.003118388653641831</v>
+        <v>-0.009604078977632619</v>
       </c>
       <c r="D21">
-        <v>-0.02866719446552567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02511193965762771</v>
+      </c>
+      <c r="E21">
+        <v>0.04694216217210659</v>
+      </c>
+      <c r="F21">
+        <v>-0.01278832692264037</v>
+      </c>
+      <c r="G21">
+        <v>0.008441370559198191</v>
+      </c>
+      <c r="H21">
+        <v>-0.05056023480684393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07901506198309363</v>
+        <v>0.0728237151935561</v>
       </c>
       <c r="C22">
-        <v>0.0609661294303902</v>
+        <v>0.03878565910860261</v>
       </c>
       <c r="D22">
-        <v>-0.1181437922590051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0815708468494776</v>
+      </c>
+      <c r="E22">
+        <v>0.5997614835362317</v>
+      </c>
+      <c r="F22">
+        <v>-0.1599054989174515</v>
+      </c>
+      <c r="G22">
+        <v>-0.07304194656061395</v>
+      </c>
+      <c r="H22">
+        <v>-0.1545360070147687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07996069745041121</v>
+        <v>0.07356380686012129</v>
       </c>
       <c r="C23">
-        <v>0.0596794785207504</v>
+        <v>0.03723001686936858</v>
       </c>
       <c r="D23">
-        <v>-0.1196665830030308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.08249529237687109</v>
+      </c>
+      <c r="E23">
+        <v>0.5990602710346307</v>
+      </c>
+      <c r="F23">
+        <v>-0.1589098572236904</v>
+      </c>
+      <c r="G23">
+        <v>-0.07182207145895143</v>
+      </c>
+      <c r="H23">
+        <v>-0.1501344263439228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07440339812125529</v>
+        <v>0.08094083941326886</v>
       </c>
       <c r="C24">
-        <v>0.05142304880296734</v>
+        <v>0.03430589502693109</v>
       </c>
       <c r="D24">
-        <v>-0.06113277007387401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06093924558804192</v>
+      </c>
+      <c r="E24">
+        <v>0.01754417965526991</v>
+      </c>
+      <c r="F24">
+        <v>0.03727555804298341</v>
+      </c>
+      <c r="G24">
+        <v>0.01288369811227221</v>
+      </c>
+      <c r="H24">
+        <v>0.04793390208779213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07381266377319964</v>
+        <v>0.07910935978439419</v>
       </c>
       <c r="C25">
-        <v>0.05445841836126306</v>
+        <v>0.03730557988070007</v>
       </c>
       <c r="D25">
-        <v>-0.067912901294744</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0523673631856145</v>
+      </c>
+      <c r="E25">
+        <v>0.02013314842228488</v>
+      </c>
+      <c r="F25">
+        <v>0.02828824060454353</v>
+      </c>
+      <c r="G25">
+        <v>0.02049154965276564</v>
+      </c>
+      <c r="H25">
+        <v>0.05197746821550293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04598923780833025</v>
+        <v>0.04772677106536334</v>
       </c>
       <c r="C26">
-        <v>0.009324841566376909</v>
+        <v>0.002385678771610271</v>
       </c>
       <c r="D26">
-        <v>-0.01220858730822533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01795056067143206</v>
+      </c>
+      <c r="E26">
+        <v>0.04695363518316371</v>
+      </c>
+      <c r="F26">
+        <v>0.02708802904766002</v>
+      </c>
+      <c r="G26">
+        <v>-0.009448033506002622</v>
+      </c>
+      <c r="H26">
+        <v>0.05806837537193266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05361194459092029</v>
+        <v>0.0617504406632138</v>
       </c>
       <c r="C28">
-        <v>0.06585580690529921</v>
+        <v>0.0899210503820544</v>
       </c>
       <c r="D28">
-        <v>0.3109732329054626</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3056909328746665</v>
+      </c>
+      <c r="E28">
+        <v>0.03218635313324762</v>
+      </c>
+      <c r="F28">
+        <v>0.05529970233605531</v>
+      </c>
+      <c r="G28">
+        <v>0.03016730407583233</v>
+      </c>
+      <c r="H28">
+        <v>-0.04556531351660707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04223229360184921</v>
+        <v>0.04861110907668501</v>
       </c>
       <c r="C29">
-        <v>0.02923873816781955</v>
+        <v>0.02580648111389316</v>
       </c>
       <c r="D29">
-        <v>-0.00873338471641426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.007982587845180314</v>
+      </c>
+      <c r="E29">
+        <v>0.05967914165812931</v>
+      </c>
+      <c r="F29">
+        <v>0.009885432148035472</v>
+      </c>
+      <c r="G29">
+        <v>-0.009812469626023135</v>
+      </c>
+      <c r="H29">
+        <v>0.07466928944811149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1275254331154969</v>
+        <v>0.1308631798047308</v>
       </c>
       <c r="C30">
-        <v>0.08660130345250307</v>
+        <v>0.06154382383847749</v>
       </c>
       <c r="D30">
-        <v>-0.101894285845566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07010214072260995</v>
+      </c>
+      <c r="E30">
+        <v>0.08039528676491124</v>
+      </c>
+      <c r="F30">
+        <v>-0.005439194733404665</v>
+      </c>
+      <c r="G30">
+        <v>0.08094709635291494</v>
+      </c>
+      <c r="H30">
+        <v>-0.05254647553554875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04441430984593478</v>
+        <v>0.04909756487744722</v>
       </c>
       <c r="C31">
-        <v>0.02211798353266863</v>
+        <v>0.01400231075130499</v>
       </c>
       <c r="D31">
-        <v>-0.02190362387890187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02805163296788339</v>
+      </c>
+      <c r="E31">
+        <v>0.02387112822511641</v>
+      </c>
+      <c r="F31">
+        <v>0.01228448154758448</v>
+      </c>
+      <c r="G31">
+        <v>-0.02462708028847494</v>
+      </c>
+      <c r="H31">
+        <v>0.06313488028094595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03896370555289731</v>
+        <v>0.03945235433269675</v>
       </c>
       <c r="C32">
-        <v>0.02695024723723109</v>
+        <v>0.02213463914262435</v>
       </c>
       <c r="D32">
-        <v>-0.02387554174136742</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01053399244137015</v>
+      </c>
+      <c r="E32">
+        <v>0.05215766472893996</v>
+      </c>
+      <c r="F32">
+        <v>-0.006967468227797179</v>
+      </c>
+      <c r="G32">
+        <v>0.02762314341107536</v>
+      </c>
+      <c r="H32">
+        <v>0.06951685803116682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08485737214421654</v>
+        <v>0.09640781240650897</v>
       </c>
       <c r="C33">
-        <v>0.04057715213713804</v>
+        <v>0.02632343746352717</v>
       </c>
       <c r="D33">
-        <v>-0.06003432118917455</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04572783401648381</v>
+      </c>
+      <c r="E33">
+        <v>0.01502615006481966</v>
+      </c>
+      <c r="F33">
+        <v>0.00675629262260599</v>
+      </c>
+      <c r="G33">
+        <v>-0.007376239615364063</v>
+      </c>
+      <c r="H33">
+        <v>0.05125636536775415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05885228356068514</v>
+        <v>0.06395941825685103</v>
       </c>
       <c r="C34">
-        <v>0.02615420233790968</v>
+        <v>0.01225737013962647</v>
       </c>
       <c r="D34">
-        <v>-0.0571960921049212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05068566873802142</v>
+      </c>
+      <c r="E34">
+        <v>0.008041940754077997</v>
+      </c>
+      <c r="F34">
+        <v>0.01940243238893861</v>
+      </c>
+      <c r="G34">
+        <v>-0.0004476477018320449</v>
+      </c>
+      <c r="H34">
+        <v>0.05889072206878029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03743949014809252</v>
+        <v>0.03939694585002659</v>
       </c>
       <c r="C35">
-        <v>0.007563903053546062</v>
+        <v>0.002756373879033254</v>
       </c>
       <c r="D35">
-        <v>-0.01532742685447204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01052660760034032</v>
+      </c>
+      <c r="E35">
+        <v>0.02078390930826924</v>
+      </c>
+      <c r="F35">
+        <v>-0.01406629110377069</v>
+      </c>
+      <c r="G35">
+        <v>-0.009029282317634186</v>
+      </c>
+      <c r="H35">
+        <v>0.01651934479081748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02253657618571145</v>
+        <v>0.02888411305035246</v>
       </c>
       <c r="C36">
-        <v>0.01707693416891058</v>
+        <v>0.01487166410445914</v>
       </c>
       <c r="D36">
-        <v>-0.02337858691563456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01632657618220652</v>
+      </c>
+      <c r="E36">
+        <v>0.03266007898295389</v>
+      </c>
+      <c r="F36">
+        <v>0.02161052163397856</v>
+      </c>
+      <c r="G36">
+        <v>-0.008534291912222016</v>
+      </c>
+      <c r="H36">
+        <v>0.0449396089034137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04193969807855464</v>
+        <v>0.04463557062299547</v>
       </c>
       <c r="C38">
-        <v>0.001359252700870133</v>
+        <v>-0.004246392178189639</v>
       </c>
       <c r="D38">
-        <v>-0.0156997572954097</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01708181170501385</v>
+      </c>
+      <c r="E38">
+        <v>0.05307076075235858</v>
+      </c>
+      <c r="F38">
+        <v>-0.004420915709851732</v>
+      </c>
+      <c r="G38">
+        <v>0.007259746196698572</v>
+      </c>
+      <c r="H38">
+        <v>0.03654355604953761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.093067359593845</v>
+        <v>0.102556345733422</v>
       </c>
       <c r="C39">
-        <v>0.07072777348332526</v>
+        <v>0.0504215142345824</v>
       </c>
       <c r="D39">
-        <v>-0.05642139197598191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06230072880807756</v>
+      </c>
+      <c r="E39">
+        <v>0.004638424678107269</v>
+      </c>
+      <c r="F39">
+        <v>-0.000983602093109907</v>
+      </c>
+      <c r="G39">
+        <v>0.0360992636656511</v>
+      </c>
+      <c r="H39">
+        <v>0.04360760362691733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07830812085904337</v>
+        <v>0.07133794784988431</v>
       </c>
       <c r="C40">
-        <v>0.03269786211357375</v>
+        <v>0.01385692292466517</v>
       </c>
       <c r="D40">
-        <v>0.0001050808572790601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01033431531724218</v>
+      </c>
+      <c r="E40">
+        <v>0.02216513420325711</v>
+      </c>
+      <c r="F40">
+        <v>-0.05865489202170799</v>
+      </c>
+      <c r="G40">
+        <v>0.05823570720878167</v>
+      </c>
+      <c r="H40">
+        <v>-0.1020985946855357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04263312656861858</v>
+        <v>0.04484515945343314</v>
       </c>
       <c r="C41">
-        <v>0.004911301729017627</v>
+        <v>-0.003067793585509869</v>
       </c>
       <c r="D41">
-        <v>-0.03146844133278377</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03263270247383272</v>
+      </c>
+      <c r="E41">
+        <v>0.000526899952722821</v>
+      </c>
+      <c r="F41">
+        <v>-0.01526370616098059</v>
+      </c>
+      <c r="G41">
+        <v>0.008617850312644159</v>
+      </c>
+      <c r="H41">
+        <v>0.03312467130133358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05094499679250272</v>
+        <v>0.05944348865079051</v>
       </c>
       <c r="C43">
-        <v>0.02525032584989687</v>
+        <v>0.01799395746090877</v>
       </c>
       <c r="D43">
-        <v>-0.01503331186590598</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02523550015750667</v>
+      </c>
+      <c r="E43">
+        <v>0.02120938112362044</v>
+      </c>
+      <c r="F43">
+        <v>0.01247337511998993</v>
+      </c>
+      <c r="G43">
+        <v>-0.01775414861908784</v>
+      </c>
+      <c r="H43">
+        <v>0.05807041364858399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09711990843028834</v>
+        <v>0.09815827500430106</v>
       </c>
       <c r="C44">
-        <v>0.08643832832728764</v>
+        <v>0.06347456933439675</v>
       </c>
       <c r="D44">
-        <v>-0.07378236600576969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05367218525533483</v>
+      </c>
+      <c r="E44">
+        <v>0.08526049373712111</v>
+      </c>
+      <c r="F44">
+        <v>0.06838679294119378</v>
+      </c>
+      <c r="G44">
+        <v>0.03342132053478601</v>
+      </c>
+      <c r="H44">
+        <v>0.01824428715909621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02606134890152494</v>
+        <v>0.03396905441535946</v>
       </c>
       <c r="C46">
-        <v>0.01449242066138542</v>
+        <v>0.01099945812448798</v>
       </c>
       <c r="D46">
-        <v>-0.02481601592775795</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03461236829739874</v>
+      </c>
+      <c r="E46">
+        <v>0.03450022338110423</v>
+      </c>
+      <c r="F46">
+        <v>0.01352365001787324</v>
+      </c>
+      <c r="G46">
+        <v>-0.01041161459931396</v>
+      </c>
+      <c r="H46">
+        <v>0.03703931307746001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03077759853163298</v>
+        <v>0.03868494521692305</v>
       </c>
       <c r="C47">
-        <v>0.02463771887765629</v>
+        <v>0.02135123380237816</v>
       </c>
       <c r="D47">
-        <v>-0.0107923325856047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008713713353479757</v>
+      </c>
+      <c r="E47">
+        <v>0.04574231900965634</v>
+      </c>
+      <c r="F47">
+        <v>0.0111020705693819</v>
+      </c>
+      <c r="G47">
+        <v>-0.04451790252807287</v>
+      </c>
+      <c r="H47">
+        <v>0.02442995214007596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03397696130798487</v>
+        <v>0.03832950805727864</v>
       </c>
       <c r="C48">
-        <v>0.01794537265097865</v>
+        <v>0.01091930455332093</v>
       </c>
       <c r="D48">
-        <v>-0.02971428876615174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01993064068020179</v>
+      </c>
+      <c r="E48">
+        <v>0.04088036321361482</v>
+      </c>
+      <c r="F48">
+        <v>0.007862451630740326</v>
+      </c>
+      <c r="G48">
+        <v>0.0128371010331172</v>
+      </c>
+      <c r="H48">
+        <v>0.03997879190173244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1622429641619413</v>
+        <v>0.1896701688081477</v>
       </c>
       <c r="C49">
-        <v>0.04949822929708727</v>
+        <v>0.03059853298254184</v>
       </c>
       <c r="D49">
-        <v>0.008085588187706496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0293971085052321</v>
+      </c>
+      <c r="E49">
+        <v>-0.1563017038962732</v>
+      </c>
+      <c r="F49">
+        <v>0.05724934538856349</v>
+      </c>
+      <c r="G49">
+        <v>-0.05900671571365029</v>
+      </c>
+      <c r="H49">
+        <v>-0.2233446816932593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04030252962585369</v>
+        <v>0.04651876965811019</v>
       </c>
       <c r="C50">
-        <v>0.02039098378938613</v>
+        <v>0.01420560702744651</v>
       </c>
       <c r="D50">
-        <v>-0.03993053855401276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03285959769809759</v>
+      </c>
+      <c r="E50">
+        <v>0.0427608173696306</v>
+      </c>
+      <c r="F50">
+        <v>0.01551071756717593</v>
+      </c>
+      <c r="G50">
+        <v>-0.02278068162789659</v>
+      </c>
+      <c r="H50">
+        <v>0.06504163767250229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02839886963887324</v>
+        <v>0.03009585741830128</v>
       </c>
       <c r="C51">
-        <v>0.01078858048537761</v>
+        <v>0.004465021120139317</v>
       </c>
       <c r="D51">
-        <v>-0.009670550643204765</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01200291733979042</v>
+      </c>
+      <c r="E51">
+        <v>0.01338736917627829</v>
+      </c>
+      <c r="F51">
+        <v>0.01613915881627232</v>
+      </c>
+      <c r="G51">
+        <v>-0.0007067144806699586</v>
+      </c>
+      <c r="H51">
+        <v>-0.002298771719224961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.155335859853968</v>
+        <v>0.1632209734985901</v>
       </c>
       <c r="C53">
-        <v>0.07215222985914299</v>
+        <v>0.04977264557715474</v>
       </c>
       <c r="D53">
-        <v>-0.009238076866940123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.020034436532292</v>
+      </c>
+      <c r="E53">
+        <v>-0.03067150132940413</v>
+      </c>
+      <c r="F53">
+        <v>0.01547688345740496</v>
+      </c>
+      <c r="G53">
+        <v>-0.02470622021593235</v>
+      </c>
+      <c r="H53">
+        <v>0.1806652443365644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05827006152203765</v>
+        <v>0.05874167384957147</v>
       </c>
       <c r="C54">
-        <v>0.02336348009261091</v>
+        <v>0.01314214580639393</v>
       </c>
       <c r="D54">
-        <v>-0.02069592599864735</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01485841134425343</v>
+      </c>
+      <c r="E54">
+        <v>0.04570873749513363</v>
+      </c>
+      <c r="F54">
+        <v>0.006653276431038276</v>
+      </c>
+      <c r="G54">
+        <v>0.01216303711570579</v>
+      </c>
+      <c r="H54">
+        <v>0.04827087942726115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1004132797728945</v>
+        <v>0.1041284570678154</v>
       </c>
       <c r="C55">
-        <v>0.04949773626251558</v>
+        <v>0.03328123548173371</v>
       </c>
       <c r="D55">
-        <v>-0.01873177784160949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02358159818442737</v>
+      </c>
+      <c r="E55">
+        <v>0.009901513366514283</v>
+      </c>
+      <c r="F55">
+        <v>0.01494228320294653</v>
+      </c>
+      <c r="G55">
+        <v>-0.01659214856474967</v>
+      </c>
+      <c r="H55">
+        <v>0.1560397760723122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1519805547324378</v>
+        <v>0.1619337737870623</v>
       </c>
       <c r="C56">
-        <v>0.08414858881139818</v>
+        <v>0.06068118407787029</v>
       </c>
       <c r="D56">
-        <v>-0.01535720841321965</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02342221694780173</v>
+      </c>
+      <c r="E56">
+        <v>-0.02225668918215173</v>
+      </c>
+      <c r="F56">
+        <v>0.03213505637154093</v>
+      </c>
+      <c r="G56">
+        <v>-0.03783048957818864</v>
+      </c>
+      <c r="H56">
+        <v>0.1806670160663942</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1308263986771753</v>
+        <v>0.1008944631552592</v>
       </c>
       <c r="C58">
-        <v>-0.002914130446579194</v>
+        <v>-0.04356558830031559</v>
       </c>
       <c r="D58">
-        <v>-0.03088299731881355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03256688060824553</v>
+      </c>
+      <c r="E58">
+        <v>0.1437413620943553</v>
+      </c>
+      <c r="F58">
+        <v>-0.00166971996403564</v>
+      </c>
+      <c r="G58">
+        <v>-0.01509110692893908</v>
+      </c>
+      <c r="H58">
+        <v>-0.2327824057375307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1229828702063298</v>
+        <v>0.1374702606071922</v>
       </c>
       <c r="C59">
-        <v>0.0724111081340385</v>
+        <v>0.0961766031550795</v>
       </c>
       <c r="D59">
-        <v>0.3692495666938528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3624251258709714</v>
+      </c>
+      <c r="E59">
+        <v>0.02496120464072722</v>
+      </c>
+      <c r="F59">
+        <v>0.01385576031795016</v>
+      </c>
+      <c r="G59">
+        <v>-0.01964608988954137</v>
+      </c>
+      <c r="H59">
+        <v>-0.001080063755315798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2058366290819571</v>
+        <v>0.2344799259873174</v>
       </c>
       <c r="C60">
-        <v>0.08864433579995171</v>
+        <v>0.06182355340695842</v>
       </c>
       <c r="D60">
-        <v>-0.02349175833855974</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04465734939078773</v>
+      </c>
+      <c r="E60">
+        <v>-0.1002274600695686</v>
+      </c>
+      <c r="F60">
+        <v>0.05526096226592344</v>
+      </c>
+      <c r="G60">
+        <v>0.02134372148953867</v>
+      </c>
+      <c r="H60">
+        <v>-0.1401697747622205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08319473101221123</v>
+        <v>0.08971898050944793</v>
       </c>
       <c r="C61">
-        <v>0.05033318370467219</v>
+        <v>0.03627538070249703</v>
       </c>
       <c r="D61">
-        <v>-0.04475927642333438</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.042294523988335</v>
+      </c>
+      <c r="E61">
+        <v>0.002456726291275517</v>
+      </c>
+      <c r="F61">
+        <v>0.00217195335621982</v>
+      </c>
+      <c r="G61">
+        <v>-1.312311591778606e-05</v>
+      </c>
+      <c r="H61">
+        <v>0.06040505286729248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1321374381504525</v>
+        <v>0.1389273306086094</v>
       </c>
       <c r="C62">
-        <v>0.05955539690524887</v>
+        <v>0.0366047845675354</v>
       </c>
       <c r="D62">
-        <v>-0.0174535975242823</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.03355391681854388</v>
+      </c>
+      <c r="E62">
+        <v>-0.05931269702445589</v>
+      </c>
+      <c r="F62">
+        <v>0.009865745636114099</v>
+      </c>
+      <c r="G62">
+        <v>0.002777684357595038</v>
+      </c>
+      <c r="H62">
+        <v>0.1847055592659775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05188141071085411</v>
+        <v>0.05134882372077221</v>
       </c>
       <c r="C63">
-        <v>0.022820943395307</v>
+        <v>0.01267689466705368</v>
       </c>
       <c r="D63">
-        <v>-0.02251283290803955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02011855535624017</v>
+      </c>
+      <c r="E63">
+        <v>0.04967195820636623</v>
+      </c>
+      <c r="F63">
+        <v>-0.00611453398296471</v>
+      </c>
+      <c r="G63">
+        <v>0.01948280924379255</v>
+      </c>
+      <c r="H63">
+        <v>0.05205050800329537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1032765709519301</v>
+        <v>0.1079771202320066</v>
       </c>
       <c r="C64">
-        <v>0.03090134976203728</v>
+        <v>0.01622156875465743</v>
       </c>
       <c r="D64">
-        <v>-0.04322460495119605</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03180615875841682</v>
+      </c>
+      <c r="E64">
+        <v>0.03177570848208476</v>
+      </c>
+      <c r="F64">
+        <v>0.03927206659580189</v>
+      </c>
+      <c r="G64">
+        <v>0.04723882122900932</v>
+      </c>
+      <c r="H64">
+        <v>0.04527438857830958</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1270334223637055</v>
+        <v>0.1267168083509213</v>
       </c>
       <c r="C65">
-        <v>0.05803730273997213</v>
+        <v>0.03959711912050497</v>
       </c>
       <c r="D65">
-        <v>0.01168456073580765</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.006795216328686798</v>
+      </c>
+      <c r="E65">
+        <v>0.0009601897252963419</v>
+      </c>
+      <c r="F65">
+        <v>0.05466332487116424</v>
+      </c>
+      <c r="G65">
+        <v>0.0625910281773521</v>
+      </c>
+      <c r="H65">
+        <v>-0.1469521309063776</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1479635843074188</v>
+        <v>0.1546639825105347</v>
       </c>
       <c r="C66">
-        <v>0.06845740508338762</v>
+        <v>0.039703617694167</v>
       </c>
       <c r="D66">
-        <v>-0.108827909260724</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09766586133663971</v>
+      </c>
+      <c r="E66">
+        <v>-0.02312035021319825</v>
+      </c>
+      <c r="F66">
+        <v>0.00811011873695756</v>
+      </c>
+      <c r="G66">
+        <v>0.04065961446232056</v>
+      </c>
+      <c r="H66">
+        <v>0.1112089268297714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07501753505406897</v>
+        <v>0.0847510680949332</v>
       </c>
       <c r="C67">
-        <v>0.009332458399065357</v>
+        <v>0.000811041602278002</v>
       </c>
       <c r="D67">
-        <v>-0.01932936488950719</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02897242099523785</v>
+      </c>
+      <c r="E67">
+        <v>0.02023030176189763</v>
+      </c>
+      <c r="F67">
+        <v>0.02186221892224646</v>
+      </c>
+      <c r="G67">
+        <v>-0.0109570710291639</v>
+      </c>
+      <c r="H67">
+        <v>0.04057193139937128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05942908213222908</v>
+        <v>0.0576090224386897</v>
       </c>
       <c r="C68">
-        <v>0.04649892901406644</v>
+        <v>0.06616668727280116</v>
       </c>
       <c r="D68">
-        <v>0.2551450032642297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2681030978629529</v>
+      </c>
+      <c r="E68">
+        <v>0.0374405357300937</v>
+      </c>
+      <c r="F68">
+        <v>0.01394782623044609</v>
+      </c>
+      <c r="G68">
+        <v>-0.01441604969802509</v>
+      </c>
+      <c r="H68">
+        <v>0.007891007037001697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05206256671861133</v>
+        <v>0.05306287463883481</v>
       </c>
       <c r="C69">
-        <v>0.01563855118968368</v>
+        <v>0.005569370397765114</v>
       </c>
       <c r="D69">
-        <v>-0.0209787651301576</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01582168635103065</v>
+      </c>
+      <c r="E69">
+        <v>0.02727108652558973</v>
+      </c>
+      <c r="F69">
+        <v>-0.006894545921977922</v>
+      </c>
+      <c r="G69">
+        <v>-0.02390962103654237</v>
+      </c>
+      <c r="H69">
+        <v>0.04547690570446188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004595811498540865</v>
+        <v>0.02688753362113967</v>
       </c>
       <c r="C70">
-        <v>-0.007785139159970872</v>
+        <v>-0.003177851897001267</v>
       </c>
       <c r="D70">
-        <v>-0.003170675885850543</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006354545224409238</v>
+      </c>
+      <c r="E70">
+        <v>-0.02684547521994025</v>
+      </c>
+      <c r="F70">
+        <v>0.008731700535311474</v>
+      </c>
+      <c r="G70">
+        <v>-0.02905538328142146</v>
+      </c>
+      <c r="H70">
+        <v>-0.02079450308832703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05838400319667334</v>
+        <v>0.05982212853818033</v>
       </c>
       <c r="C71">
-        <v>0.04564118297675847</v>
+        <v>0.07110263422172856</v>
       </c>
       <c r="D71">
-        <v>0.29287246541082</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2942917781381268</v>
+      </c>
+      <c r="E71">
+        <v>0.0329942178514431</v>
+      </c>
+      <c r="F71">
+        <v>0.04244297618815463</v>
+      </c>
+      <c r="G71">
+        <v>-0.002269398746391723</v>
+      </c>
+      <c r="H71">
+        <v>0.007901241458509687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.143442777341544</v>
+        <v>0.1444981197416109</v>
       </c>
       <c r="C72">
-        <v>0.05957580322635749</v>
+        <v>0.03258377204159595</v>
       </c>
       <c r="D72">
-        <v>-0.001832774050135306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0002904760361814477</v>
+      </c>
+      <c r="E72">
+        <v>-0.08268261833595901</v>
+      </c>
+      <c r="F72">
+        <v>-0.1682773983523558</v>
+      </c>
+      <c r="G72">
+        <v>0.1178051447264364</v>
+      </c>
+      <c r="H72">
+        <v>0.01671124252146929</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2845845518904942</v>
+        <v>0.2891772147124462</v>
       </c>
       <c r="C73">
-        <v>0.09444675891810776</v>
+        <v>0.03549525346071879</v>
       </c>
       <c r="D73">
-        <v>-0.04893588030098364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09274494437482901</v>
+      </c>
+      <c r="E73">
+        <v>-0.2194585787105914</v>
+      </c>
+      <c r="F73">
+        <v>0.093087357335912</v>
+      </c>
+      <c r="G73">
+        <v>-0.131652493275725</v>
+      </c>
+      <c r="H73">
+        <v>-0.5038947062967989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08148260881651828</v>
+        <v>0.09181754554832611</v>
       </c>
       <c r="C74">
-        <v>0.07484242183990206</v>
+        <v>0.060183604612761</v>
       </c>
       <c r="D74">
-        <v>-0.01135720181342889</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03202969917764566</v>
+      </c>
+      <c r="E74">
+        <v>-0.003683882184414137</v>
+      </c>
+      <c r="F74">
+        <v>0.0009819049068704074</v>
+      </c>
+      <c r="G74">
+        <v>-0.05539907289291077</v>
+      </c>
+      <c r="H74">
+        <v>0.1132904795479364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09696465734765623</v>
+        <v>0.1017797739679123</v>
       </c>
       <c r="C75">
-        <v>0.04740769414940559</v>
+        <v>0.02642916352925725</v>
       </c>
       <c r="D75">
-        <v>-0.006246671002234356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01471506038810183</v>
+      </c>
+      <c r="E75">
+        <v>0.002083216441143421</v>
+      </c>
+      <c r="F75">
+        <v>0.02142130342861834</v>
+      </c>
+      <c r="G75">
+        <v>-0.0262487575600606</v>
+      </c>
+      <c r="H75">
+        <v>0.1126094477152874</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1327579716141667</v>
+        <v>0.1422234829591093</v>
       </c>
       <c r="C76">
-        <v>0.07951328392283019</v>
+        <v>0.05752374641388968</v>
       </c>
       <c r="D76">
-        <v>-0.04394359214068409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04856503330743695</v>
+      </c>
+      <c r="E76">
+        <v>0.0158764813168349</v>
+      </c>
+      <c r="F76">
+        <v>0.04671877321336863</v>
+      </c>
+      <c r="G76">
+        <v>-0.01776229931323593</v>
+      </c>
+      <c r="H76">
+        <v>0.2030945656540945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178231579215242</v>
+        <v>0.1076499305871132</v>
       </c>
       <c r="C77">
-        <v>0.007975137109513985</v>
+        <v>-0.01785014864681998</v>
       </c>
       <c r="D77">
-        <v>-0.06830313917332312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02401822403504794</v>
+      </c>
+      <c r="E77">
+        <v>0.02208809853180806</v>
+      </c>
+      <c r="F77">
+        <v>0.0982249576314923</v>
+      </c>
+      <c r="G77">
+        <v>0.8903228523822448</v>
+      </c>
+      <c r="H77">
+        <v>-0.0781106295047431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1067168559222831</v>
+        <v>0.1449093720548664</v>
       </c>
       <c r="C78">
-        <v>0.03654424554614207</v>
+        <v>0.03128275808456967</v>
       </c>
       <c r="D78">
-        <v>-0.08388855297177476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08046290385058459</v>
+      </c>
+      <c r="E78">
+        <v>0.05645850664619374</v>
+      </c>
+      <c r="F78">
+        <v>0.05299815522132145</v>
+      </c>
+      <c r="G78">
+        <v>0.0867314406769316</v>
+      </c>
+      <c r="H78">
+        <v>-0.03515422734183224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1486219251247655</v>
+        <v>0.1514395170308268</v>
       </c>
       <c r="C79">
-        <v>0.06690467412402192</v>
+        <v>0.03940327697543343</v>
       </c>
       <c r="D79">
-        <v>-0.02571544737547024</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02871821230148652</v>
+      </c>
+      <c r="E79">
+        <v>-0.01790750122793134</v>
+      </c>
+      <c r="F79">
+        <v>0.02014307913693036</v>
+      </c>
+      <c r="G79">
+        <v>-0.04358703894085228</v>
+      </c>
+      <c r="H79">
+        <v>0.1650140575646007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04201134639104784</v>
+        <v>0.04316580713639444</v>
       </c>
       <c r="C80">
-        <v>0.01935201210136142</v>
+        <v>0.01449735149215393</v>
       </c>
       <c r="D80">
-        <v>-0.02825153348088014</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01212966677563847</v>
+      </c>
+      <c r="E80">
+        <v>-0.03015852146341148</v>
+      </c>
+      <c r="F80">
+        <v>0.008626207866472994</v>
+      </c>
+      <c r="G80">
+        <v>-0.02338480494453653</v>
+      </c>
+      <c r="H80">
+        <v>0.03360253431081145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1188223541232374</v>
+        <v>0.1204694214077433</v>
       </c>
       <c r="C81">
-        <v>0.05929349244167001</v>
+        <v>0.03669772332859898</v>
       </c>
       <c r="D81">
-        <v>-0.0294253465781383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0240402672133645</v>
+      </c>
+      <c r="E81">
+        <v>0.009619434851684965</v>
+      </c>
+      <c r="F81">
+        <v>0.01980636972668192</v>
+      </c>
+      <c r="G81">
+        <v>-0.05945077818839097</v>
+      </c>
+      <c r="H81">
+        <v>0.1510721013765775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1301651029886176</v>
+        <v>0.1313977735970705</v>
       </c>
       <c r="C82">
-        <v>0.07003556091579889</v>
+        <v>0.0484498927032902</v>
       </c>
       <c r="D82">
-        <v>-0.01615922288873567</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02742530400646309</v>
+      </c>
+      <c r="E82">
+        <v>-0.01900575201508945</v>
+      </c>
+      <c r="F82">
+        <v>0.05062891164790686</v>
+      </c>
+      <c r="G82">
+        <v>-0.05617987383016717</v>
+      </c>
+      <c r="H82">
+        <v>0.2161949938310456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07427962607055333</v>
+        <v>0.08575687949110887</v>
       </c>
       <c r="C83">
-        <v>-0.01697787680001055</v>
+        <v>-0.02924287419001438</v>
       </c>
       <c r="D83">
-        <v>-0.03208457922960049</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03380486683816136</v>
+      </c>
+      <c r="E83">
+        <v>0.02308184274085192</v>
+      </c>
+      <c r="F83">
+        <v>0.05829615166424047</v>
+      </c>
+      <c r="G83">
+        <v>-0.08150235211500469</v>
+      </c>
+      <c r="H83">
+        <v>-0.06041638350480916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02962648570230578</v>
+        <v>0.03748288907523413</v>
       </c>
       <c r="C84">
-        <v>0.02883504959398761</v>
+        <v>0.02300026856727683</v>
       </c>
       <c r="D84">
-        <v>-0.02808049123201945</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03250817019369879</v>
+      </c>
+      <c r="E84">
+        <v>0.0295275987518622</v>
+      </c>
+      <c r="F84">
+        <v>-0.05023287492498864</v>
+      </c>
+      <c r="G84">
+        <v>-0.0659448850017781</v>
+      </c>
+      <c r="H84">
+        <v>0.0008668758558652532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1215424056010135</v>
+        <v>0.1225214173987623</v>
       </c>
       <c r="C85">
-        <v>0.04581120677847694</v>
+        <v>0.02435484839869949</v>
       </c>
       <c r="D85">
-        <v>-0.01821558453299893</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02081619367232736</v>
+      </c>
+      <c r="E85">
+        <v>0.01747511345053768</v>
+      </c>
+      <c r="F85">
+        <v>0.04039852346198302</v>
+      </c>
+      <c r="G85">
+        <v>-0.03392063609773708</v>
+      </c>
+      <c r="H85">
+        <v>0.1559527069464977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0547532796907169</v>
+        <v>0.05844162197855562</v>
       </c>
       <c r="C86">
-        <v>0.02177735527316686</v>
+        <v>0.01133180211883959</v>
       </c>
       <c r="D86">
-        <v>-0.03308859212225956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0318557763581162</v>
+      </c>
+      <c r="E86">
+        <v>0.0585705709222154</v>
+      </c>
+      <c r="F86">
+        <v>0.02600990477174714</v>
+      </c>
+      <c r="G86">
+        <v>-0.0274908647273431</v>
+      </c>
+      <c r="H86">
+        <v>-0.01358109122230546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1187726643309536</v>
+        <v>0.1223520433903968</v>
       </c>
       <c r="C87">
-        <v>0.06483388745363199</v>
+        <v>0.0343414870035022</v>
       </c>
       <c r="D87">
-        <v>-0.07550996268777356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07041046835732198</v>
+      </c>
+      <c r="E87">
+        <v>0.02213198074708327</v>
+      </c>
+      <c r="F87">
+        <v>0.01340347410237138</v>
+      </c>
+      <c r="G87">
+        <v>0.1402715216947842</v>
+      </c>
+      <c r="H87">
+        <v>-0.02957805717253781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05303356125141818</v>
+        <v>0.06070044114953441</v>
       </c>
       <c r="C88">
-        <v>0.0284978515584054</v>
+        <v>0.02023793839937687</v>
       </c>
       <c r="D88">
-        <v>-0.02265330927472341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03520611488541219</v>
+      </c>
+      <c r="E88">
+        <v>0.01730905911257126</v>
+      </c>
+      <c r="F88">
+        <v>0.009698324003553338</v>
+      </c>
+      <c r="G88">
+        <v>0.002913934160258219</v>
+      </c>
+      <c r="H88">
+        <v>0.05384722563573777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08857686840471857</v>
+        <v>0.09572127075285224</v>
       </c>
       <c r="C89">
-        <v>0.06767952856040946</v>
+        <v>0.09477848246702986</v>
       </c>
       <c r="D89">
-        <v>0.3270327436425493</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3478397718001054</v>
+      </c>
+      <c r="E89">
+        <v>0.06953789185013355</v>
+      </c>
+      <c r="F89">
+        <v>0.07823528991246011</v>
+      </c>
+      <c r="G89">
+        <v>-0.01970474708211731</v>
+      </c>
+      <c r="H89">
+        <v>0.003126276269827609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07489225633531039</v>
+        <v>0.07805925214461637</v>
       </c>
       <c r="C90">
-        <v>0.0554222608011739</v>
+        <v>0.07782510040559038</v>
       </c>
       <c r="D90">
-        <v>0.3106128728581743</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3026094503423578</v>
+      </c>
+      <c r="E90">
+        <v>0.0646701273265195</v>
+      </c>
+      <c r="F90">
+        <v>0.001824897647335905</v>
+      </c>
+      <c r="G90">
+        <v>-0.00639072342994911</v>
+      </c>
+      <c r="H90">
+        <v>-0.0005421531813485152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08914496421776802</v>
+        <v>0.09114404270100315</v>
       </c>
       <c r="C91">
-        <v>0.05076691258181724</v>
+        <v>0.03066606781884872</v>
       </c>
       <c r="D91">
-        <v>-0.02334120563542555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03130789972803748</v>
+      </c>
+      <c r="E91">
+        <v>0.007009966096277799</v>
+      </c>
+      <c r="F91">
+        <v>0.004455143486003572</v>
+      </c>
+      <c r="G91">
+        <v>-0.05224905241918273</v>
+      </c>
+      <c r="H91">
+        <v>0.08425884549534725</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07583211045291584</v>
+        <v>0.07834272428115542</v>
       </c>
       <c r="C92">
-        <v>0.07071756372895924</v>
+        <v>0.09649147901688711</v>
       </c>
       <c r="D92">
-        <v>0.3403658702164505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.343015897237033</v>
+      </c>
+      <c r="E92">
+        <v>0.03908389346346559</v>
+      </c>
+      <c r="F92">
+        <v>0.04720220012792408</v>
+      </c>
+      <c r="G92">
+        <v>0.01738003137742778</v>
+      </c>
+      <c r="H92">
+        <v>0.01544538181522555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06665511487881848</v>
+        <v>0.07539795966554108</v>
       </c>
       <c r="C93">
-        <v>0.0622134025188712</v>
+        <v>0.09020806504168401</v>
       </c>
       <c r="D93">
-        <v>0.3099746354702622</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3054926221604637</v>
+      </c>
+      <c r="E93">
+        <v>0.02187667844988325</v>
+      </c>
+      <c r="F93">
+        <v>0.03678390060540818</v>
+      </c>
+      <c r="G93">
+        <v>0.01783902566526059</v>
+      </c>
+      <c r="H93">
+        <v>-0.01056545423801015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1359546370914687</v>
+        <v>0.1288360030642516</v>
       </c>
       <c r="C94">
-        <v>0.04422555447679782</v>
+        <v>0.0135885639421795</v>
       </c>
       <c r="D94">
-        <v>-0.03746435650205025</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04598710216615161</v>
+      </c>
+      <c r="E94">
+        <v>-0.01821959448613127</v>
+      </c>
+      <c r="F94">
+        <v>0.01187160705440591</v>
+      </c>
+      <c r="G94">
+        <v>-0.06467818484014659</v>
+      </c>
+      <c r="H94">
+        <v>0.09978570262959313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.123219693320625</v>
+        <v>0.1288640135756463</v>
       </c>
       <c r="C95">
-        <v>0.02643656793173952</v>
+        <v>-0.0001574009720028477</v>
       </c>
       <c r="D95">
-        <v>-0.06463255328208112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06608607748433608</v>
+      </c>
+      <c r="E95">
+        <v>0.01255571452388916</v>
+      </c>
+      <c r="F95">
+        <v>0.03845435641077496</v>
+      </c>
+      <c r="G95">
+        <v>0.0140044632514672</v>
+      </c>
+      <c r="H95">
+        <v>-0.04055298484342595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2205376551820236</v>
+        <v>0.2055818624129497</v>
       </c>
       <c r="C97">
-        <v>0.0401420994509796</v>
+        <v>-0.003823597748745012</v>
       </c>
       <c r="D97">
-        <v>0.1046230735339535</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.08184510382538109</v>
+      </c>
+      <c r="E97">
+        <v>-0.2044739197047957</v>
+      </c>
+      <c r="F97">
+        <v>-0.9035796753855323</v>
+      </c>
+      <c r="G97">
+        <v>0.06660913314590508</v>
+      </c>
+      <c r="H97">
+        <v>0.01686278357939707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2504408229304436</v>
+        <v>0.2759947037593831</v>
       </c>
       <c r="C98">
-        <v>0.0605884130229856</v>
+        <v>0.02273753019781598</v>
       </c>
       <c r="D98">
-        <v>-0.03302704053926776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05462933029274147</v>
+      </c>
+      <c r="E98">
+        <v>-0.1845970753666695</v>
+      </c>
+      <c r="F98">
+        <v>0.06788873681670411</v>
+      </c>
+      <c r="G98">
+        <v>-0.2351523469650739</v>
+      </c>
+      <c r="H98">
+        <v>-0.2492597482520512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4025434055643677</v>
+        <v>0.2700338565185299</v>
       </c>
       <c r="C99">
-        <v>-0.8981970162112503</v>
+        <v>-0.9311850757955412</v>
       </c>
       <c r="D99">
-        <v>0.04971992729359865</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1635554343704307</v>
+      </c>
+      <c r="E99">
+        <v>0.07148851250782953</v>
+      </c>
+      <c r="F99">
+        <v>0.05866967683741776</v>
+      </c>
+      <c r="G99">
+        <v>-0.02452740101006864</v>
+      </c>
+      <c r="H99">
+        <v>0.07150588715845022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0420724168973401</v>
+        <v>0.04854842415290448</v>
       </c>
       <c r="C101">
-        <v>0.02936602523619717</v>
+        <v>0.02604208151274805</v>
       </c>
       <c r="D101">
-        <v>-0.009323913195968002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.008135784752620116</v>
+      </c>
+      <c r="E101">
+        <v>0.05964264315892981</v>
+      </c>
+      <c r="F101">
+        <v>0.009582524566897028</v>
+      </c>
+      <c r="G101">
+        <v>-0.01020401917775574</v>
+      </c>
+      <c r="H101">
+        <v>0.07350503083175837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
